--- a/PAM/Data/final_PAM.xlsx
+++ b/PAM/Data/final_PAM.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninahmunk/Desktop/Projects/Acropora_Regeneration-main/PAM/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C8328-760C-D44E-BD72-6D312670EBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -64,25 +73,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,48 +106,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -322,23 +338,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -372,69 +391,69 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="F2" s="3">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="G2" s="3">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="I2" s="4">
-        <v>0.7784722222222222</v>
+        <v>0.77847222222222223</v>
       </c>
       <c r="J2" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="K2" s="5">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="L2" s="5">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="M2" s="5">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="N2" s="5">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="F3" s="3">
-        <v>751.0</v>
+        <v>751</v>
       </c>
       <c r="G3" s="3">
-        <v>677.0</v>
+        <v>677</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>9</v>
@@ -455,39 +474,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="F4" s="3">
-        <v>717.0</v>
+        <v>717</v>
       </c>
       <c r="G4" s="3">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="J4" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K4" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L4" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>15</v>
@@ -496,5860 +515,6700 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="F5" s="3">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="G5" s="3">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="D6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="F6" s="3">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="G6" s="3">
-        <v>653.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="D7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="F7" s="3">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="G7" s="3">
-        <v>639.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="F8" s="3">
-        <v>866.0</v>
+        <v>866</v>
       </c>
       <c r="G8" s="3">
-        <v>668.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="F9" s="3">
-        <v>812.0</v>
+        <v>812</v>
       </c>
       <c r="G9" s="3">
-        <v>653.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="F10" s="3">
-        <v>731.0</v>
+        <v>731</v>
       </c>
       <c r="G10" s="3">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="F11" s="3">
-        <v>849.0</v>
+        <v>849</v>
       </c>
       <c r="G11" s="3">
-        <v>666.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="F12" s="3">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="G12" s="3">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="F13" s="3">
-        <v>760.0</v>
+        <v>760</v>
       </c>
       <c r="G13" s="3">
-        <v>668.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="F14" s="3">
-        <v>755.0</v>
+        <v>755</v>
       </c>
       <c r="G14" s="3">
-        <v>735.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B15" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>271.0</v>
+        <v>271</v>
       </c>
       <c r="F15" s="3">
-        <v>830.0</v>
+        <v>830</v>
       </c>
       <c r="G15" s="3">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="F16" s="3">
-        <v>801.0</v>
+        <v>801</v>
       </c>
       <c r="G16" s="3">
-        <v>621.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="F17" s="3">
-        <v>1044.0</v>
+        <v>1044</v>
       </c>
       <c r="G17" s="3">
-        <v>659.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="F18" s="3">
-        <v>709.0</v>
+        <v>709</v>
       </c>
       <c r="G18" s="3">
-        <v>654.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="F19" s="3">
-        <v>939.0</v>
+        <v>939</v>
       </c>
       <c r="G19" s="3">
-        <v>656.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="F20" s="3">
-        <v>969.0</v>
+        <v>969</v>
       </c>
       <c r="G20" s="3">
-        <v>674.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="F21" s="3">
-        <v>635.0</v>
+        <v>635</v>
       </c>
       <c r="G21" s="3">
-        <v>651.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D22" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="F22" s="3">
-        <v>883.0</v>
+        <v>883</v>
       </c>
       <c r="G22" s="3">
-        <v>654.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="F23" s="3">
-        <v>729.0</v>
+        <v>729</v>
       </c>
       <c r="G23" s="3">
-        <v>674.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="F24" s="3">
-        <v>927.0</v>
+        <v>927</v>
       </c>
       <c r="G24" s="3">
-        <v>760.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="F25" s="3">
-        <v>655.0</v>
+        <v>655</v>
       </c>
       <c r="G25" s="3">
-        <v>654.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="F26" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="G26" s="3">
-        <v>611.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="F27" s="3">
-        <v>575.0</v>
+        <v>575</v>
       </c>
       <c r="G27" s="3">
-        <v>641.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="F28" s="3">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="G28" s="3">
-        <v>702.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B29" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="F29" s="3">
-        <v>883.0</v>
+        <v>883</v>
       </c>
       <c r="G29" s="3">
-        <v>702.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="3">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="F30" s="3">
-        <v>774.0</v>
+        <v>774</v>
       </c>
       <c r="G30" s="3">
-        <v>698.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="D31" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="F31" s="3">
-        <v>737.0</v>
+        <v>737</v>
       </c>
       <c r="G31" s="3">
-        <v>645.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B32" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="D32" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="F32" s="3">
-        <v>1163.0</v>
+        <v>1163</v>
       </c>
       <c r="G32" s="3">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B33" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="F33" s="3">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="G33" s="3">
-        <v>659.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B34" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="D34" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="F34" s="3">
-        <v>749.0</v>
+        <v>749</v>
       </c>
       <c r="G34" s="3">
-        <v>662.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="F35" s="3">
-        <v>672.0</v>
+        <v>672</v>
       </c>
       <c r="G35" s="3">
-        <v>669.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B36" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D36" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="F36" s="3">
-        <v>653.0</v>
+        <v>653</v>
       </c>
       <c r="G36" s="3">
-        <v>666.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B37" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="F37" s="3">
-        <v>469.0</v>
+        <v>469</v>
       </c>
       <c r="G37" s="3">
-        <v>665.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B38" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="D38" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="3">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="F38" s="3">
-        <v>933.0</v>
+        <v>933</v>
       </c>
       <c r="G38" s="3">
-        <v>727.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B39" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="3">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="F39" s="3">
-        <v>748.0</v>
+        <v>748</v>
       </c>
       <c r="G39" s="3">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B40" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="D40" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="F40" s="3">
-        <v>905.0</v>
+        <v>905</v>
       </c>
       <c r="G40" s="3">
-        <v>676.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B41" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="D41" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="3">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="F41" s="3">
-        <v>904.0</v>
+        <v>904</v>
       </c>
       <c r="G41" s="3">
-        <v>709.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B42" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="D42" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="3">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="F42" s="3">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="G42" s="3">
-        <v>665.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B43" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="D43" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="F43" s="3">
-        <v>819.0</v>
+        <v>819</v>
       </c>
       <c r="G43" s="3">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B44" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D44" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="3">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="F44" s="3">
-        <v>605.0</v>
+        <v>605</v>
       </c>
       <c r="G44" s="3">
-        <v>676.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B45" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D45" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="3">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="F45" s="3">
-        <v>697.0</v>
+        <v>697</v>
       </c>
       <c r="G45" s="3">
-        <v>670.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B46" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D46" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="F46" s="3">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="G46" s="3">
-        <v>653.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B47" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="D47" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="3">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="F47" s="3">
-        <v>1055.0</v>
+        <v>1055</v>
       </c>
       <c r="G47" s="3">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B48" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="D48" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="3">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="F48" s="3">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="G48" s="3">
-        <v>672.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B49" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="D49" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="F49" s="3">
-        <v>847.0</v>
+        <v>847</v>
       </c>
       <c r="G49" s="3">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B50" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="D50" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="3">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="F50" s="3">
-        <v>938.0</v>
+        <v>938</v>
       </c>
       <c r="G50" s="3">
-        <v>742.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B51" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="D51" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E51" s="3">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="F51" s="3">
-        <v>808.0</v>
+        <v>808</v>
       </c>
       <c r="G51" s="3">
-        <v>654.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B52" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="D52" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="F52" s="3">
-        <v>729.0</v>
+        <v>729</v>
       </c>
       <c r="G52" s="3">
-        <v>672.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="3">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="F53" s="3">
-        <v>740.0</v>
+        <v>740</v>
       </c>
       <c r="G53" s="3">
-        <v>702.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B54" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D54" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="3">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="F54" s="3">
-        <v>887.0</v>
+        <v>887</v>
       </c>
       <c r="G54" s="3">
-        <v>668.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D55" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="3">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="F55" s="3">
-        <v>788.0</v>
+        <v>788</v>
       </c>
       <c r="G55" s="3">
-        <v>672.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B56" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="3">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="D56" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="3">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="F56" s="3">
-        <v>931.0</v>
+        <v>931</v>
       </c>
       <c r="G56" s="3">
-        <v>670.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B57" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="3">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="D57" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="3">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="F57" s="3">
-        <v>834.0</v>
+        <v>834</v>
       </c>
       <c r="G57" s="3">
-        <v>693.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B58" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="3">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="D58" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="F58" s="3">
-        <v>655.0</v>
+        <v>655</v>
       </c>
       <c r="G58" s="3">
-        <v>683.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B59" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D59" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="3">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="F59" s="3">
-        <v>878.0</v>
+        <v>878</v>
       </c>
       <c r="G59" s="3">
-        <v>717.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B60" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E60" s="3">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="F60" s="3">
-        <v>712.0</v>
+        <v>712</v>
       </c>
       <c r="G60" s="3">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B61" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D61" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E61" s="3">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="F61" s="3">
-        <v>735.0</v>
+        <v>735</v>
       </c>
       <c r="G61" s="3">
-        <v>670.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B62" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="D62" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="3">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="F62" s="3">
-        <v>789.0</v>
+        <v>789</v>
       </c>
       <c r="G62" s="3">
-        <v>698.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B63" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="D63" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E63" s="3">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="F63" s="3">
-        <v>816.0</v>
+        <v>816</v>
       </c>
       <c r="G63" s="3">
-        <v>680.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B64" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="D64" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E64" s="3">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="F64" s="3">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="G64" s="3">
-        <v>682.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B65" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="D65" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="3">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="F65" s="3">
-        <v>599.0</v>
+        <v>599</v>
       </c>
       <c r="G65" s="3">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B66" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="D66" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E66" s="3">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="F66" s="3">
-        <v>825.0</v>
+        <v>825</v>
       </c>
       <c r="G66" s="3">
-        <v>706.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B67" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="D67" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E67" s="3">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="F67" s="3">
-        <v>751.0</v>
+        <v>751</v>
       </c>
       <c r="G67" s="3">
-        <v>689.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B68" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="3">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="D68" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="3">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="F68" s="3">
-        <v>885.0</v>
+        <v>885</v>
       </c>
       <c r="G68" s="3">
-        <v>694.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B69" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="3">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="D69" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E69" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="F69" s="3">
-        <v>651.0</v>
+        <v>651</v>
       </c>
       <c r="G69" s="3">
-        <v>672.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B70" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="3">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="D70" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E70" s="3">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="F70" s="3">
-        <v>624.0</v>
+        <v>624</v>
       </c>
       <c r="G70" s="3">
-        <v>740.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B71" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="D71" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="3">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="F71" s="3">
-        <v>873.0</v>
+        <v>873</v>
       </c>
       <c r="G71" s="3">
-        <v>666.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B72" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="D72" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E72" s="3">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="F72" s="3">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="G72" s="3">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B73" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="D73" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E73" s="3">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="F73" s="3">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="G73" s="3">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B74" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D74" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="F74" s="3">
-        <v>727.0</v>
+        <v>727</v>
       </c>
       <c r="G74" s="3">
-        <v>707.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B75" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D75" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E75" s="3">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="F75" s="3">
-        <v>633.0</v>
+        <v>633</v>
       </c>
       <c r="G75" s="3">
-        <v>701.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B76" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D76" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="F76" s="3">
-        <v>614.0</v>
+        <v>614</v>
       </c>
       <c r="G76" s="3">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B77" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D77" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="3">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="F77" s="3">
-        <v>625.0</v>
+        <v>625</v>
       </c>
       <c r="G77" s="3">
-        <v>667.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B78" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D78" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E78" s="3">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="F78" s="3">
-        <v>552.0</v>
+        <v>552</v>
       </c>
       <c r="G78" s="3">
-        <v>760.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B79" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D79" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E79" s="3">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="F79" s="3">
-        <v>674.0</v>
+        <v>674</v>
       </c>
       <c r="G79" s="3">
-        <v>663.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B80" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="D80" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="F80" s="3">
-        <v>924.0</v>
+        <v>924</v>
       </c>
       <c r="G80" s="3">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B81" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="D81" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E81" s="3">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="F81" s="3">
-        <v>814.0</v>
+        <v>814</v>
       </c>
       <c r="G81" s="3">
-        <v>657.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B82" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="D82" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E82" s="3">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="F82" s="3">
-        <v>1113.0</v>
+        <v>1113</v>
       </c>
       <c r="G82" s="3">
-        <v>676.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B83" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D83" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="3">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="F83" s="3">
-        <v>1088.0</v>
+        <v>1088</v>
       </c>
       <c r="G83" s="3">
-        <v>719.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B84" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D84" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E84" s="3">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="F84" s="3">
-        <v>768.0</v>
+        <v>768</v>
       </c>
       <c r="G84" s="3">
-        <v>705.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B85" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D85" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E85" s="3">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="F85" s="3">
-        <v>957.0</v>
+        <v>957</v>
       </c>
       <c r="G85" s="3">
-        <v>684.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B86" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="3">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="D86" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="3">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="F86" s="3">
-        <v>841.0</v>
+        <v>841</v>
       </c>
       <c r="G86" s="3">
-        <v>683.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B87" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="3">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="D87" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E87" s="3">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="F87" s="3">
-        <v>786.0</v>
+        <v>786</v>
       </c>
       <c r="G87" s="3">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B88" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="3">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="D88" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E88" s="3">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="F88" s="3">
-        <v>823.0</v>
+        <v>823</v>
       </c>
       <c r="G88" s="3">
-        <v>668.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B89" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D89" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="3">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="F89" s="3">
-        <v>616.0</v>
+        <v>616</v>
       </c>
       <c r="G89" s="3">
-        <v>694.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B90" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D90" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E90" s="3">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="F90" s="3">
-        <v>462.0</v>
+        <v>462</v>
       </c>
       <c r="G90" s="3">
-        <v>668.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B91" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D91" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="F91" s="3">
-        <v>536.0</v>
+        <v>536</v>
       </c>
       <c r="G91" s="3">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B92" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="D92" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="3">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="F92" s="3">
-        <v>860.0</v>
+        <v>860</v>
       </c>
       <c r="G92" s="3">
-        <v>696.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B93" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="D93" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E93" s="3">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="F93" s="3">
-        <v>969.0</v>
+        <v>969</v>
       </c>
       <c r="G93" s="3">
-        <v>699.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B94" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="D94" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="F94" s="3">
-        <v>981.0</v>
+        <v>981</v>
       </c>
       <c r="G94" s="3">
-        <v>704.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B95" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="3">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="D95" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="3">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="F95" s="3">
-        <v>737.0</v>
+        <v>737</v>
       </c>
       <c r="G95" s="3">
-        <v>724.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B96" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="3">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="D96" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E96" s="3">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="F96" s="3">
-        <v>650.0</v>
+        <v>650</v>
       </c>
       <c r="G96" s="3">
-        <v>681.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B97" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="3">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="D97" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E97" s="3">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="F97" s="3">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="G97" s="3">
-        <v>697.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B98" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D98" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="3">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="F98" s="3">
-        <v>781.0</v>
+        <v>781</v>
       </c>
       <c r="G98" s="3">
-        <v>722.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B99" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D99" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E99" s="3">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="F99" s="3">
-        <v>704.0</v>
+        <v>704</v>
       </c>
       <c r="G99" s="3">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B100" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C100" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D100" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="F100" s="3">
-        <v>771.0</v>
+        <v>771</v>
       </c>
       <c r="G100" s="3">
-        <v>693.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B101" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C101" s="3">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="D101" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="3">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="F101" s="3">
-        <v>997.0</v>
+        <v>997</v>
       </c>
       <c r="G101" s="3">
-        <v>710.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B102" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="3">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="D102" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E102" s="3">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="F102" s="3">
-        <v>834.0</v>
+        <v>834</v>
       </c>
       <c r="G102" s="3">
-        <v>689.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B103" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C103" s="3">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="D103" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E103" s="3">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="F103" s="3">
-        <v>823.0</v>
+        <v>823</v>
       </c>
       <c r="G103" s="3">
-        <v>696.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B104" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D104" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="3">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="F104" s="3">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="G104" s="3">
-        <v>670.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B105" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D105" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E105" s="3">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="F105" s="3">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="G105" s="3">
-        <v>684.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B106" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D106" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E106" s="3">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="F106" s="3">
-        <v>711.0</v>
+        <v>711</v>
       </c>
       <c r="G106" s="3">
-        <v>755.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B107" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C107" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D107" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="3">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="F107" s="3">
-        <v>608.0</v>
+        <v>608</v>
       </c>
       <c r="G107" s="3">
-        <v>659.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B108" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D108" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E108" s="3">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="F108" s="3">
-        <v>646.0</v>
+        <v>646</v>
       </c>
       <c r="G108" s="3">
-        <v>667.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
-        <v>2.0230701E7</v>
+        <v>20230701</v>
       </c>
       <c r="B109" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C109" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D109" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E109" s="3">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="F109" s="3">
-        <v>536.0</v>
+        <v>536</v>
       </c>
       <c r="G109" s="3">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B110" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C110" s="3">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="E110" s="3">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="F110" s="3">
-        <v>894.0</v>
+        <v>894</v>
       </c>
       <c r="G110" s="3">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="H110" s="4">
-        <v>0.2826388888888889</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>0.28263888888888888</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B111" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C111" s="3">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="E111" s="3">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="F111" s="3">
-        <v>791.0</v>
+        <v>791</v>
       </c>
       <c r="G111" s="3">
-        <v>653.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B112" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C112" s="3">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="E112" s="3">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="F112" s="3">
-        <v>915.0</v>
+        <v>915</v>
       </c>
       <c r="G112" s="3">
-        <v>649.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B113" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C113" s="3">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="E113" s="3">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="F113" s="3">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="G113" s="3">
-        <v>684.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B114" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C114" s="3">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="E114" s="3">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="F114" s="3">
-        <v>739.0</v>
+        <v>739</v>
       </c>
       <c r="G114" s="3">
-        <v>695.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B115" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C115" s="3">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="E115" s="3">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="F115" s="3">
-        <v>531.0</v>
+        <v>531</v>
       </c>
       <c r="G115" s="3">
-        <v>642.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B116" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C116" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="E116" s="3">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="F116" s="3">
-        <v>1225.0</v>
+        <v>1225</v>
       </c>
       <c r="G116" s="3">
-        <v>714.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B117" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C117" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="E117" s="3">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="F117" s="3">
-        <v>1426.0</v>
+        <v>1426</v>
       </c>
       <c r="G117" s="3">
-        <v>684.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B118" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C118" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="E118" s="3">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="F118" s="3">
-        <v>1221.0</v>
+        <v>1221</v>
       </c>
       <c r="G118" s="3">
-        <v>682.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B119" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C119" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E119" s="3">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="F119" s="3">
-        <v>1139.0</v>
+        <v>1139</v>
       </c>
       <c r="G119" s="3">
-        <v>730.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B120" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C120" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E120" s="3">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="F120" s="3">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="G120" s="3">
-        <v>698.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B121" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C121" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E121" s="3">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="F121" s="3">
-        <v>667.0</v>
+        <v>667</v>
       </c>
       <c r="G121" s="3">
-        <v>665.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B122" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C122" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E122" s="3">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="F122" s="3">
-        <v>1332.0</v>
+        <v>1332</v>
       </c>
       <c r="G122" s="3">
-        <v>723.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B123" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C123" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E123" s="3">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="F123" s="3">
-        <v>895.0</v>
+        <v>895</v>
       </c>
       <c r="G123" s="3">
-        <v>675.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B124" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C124" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E124" s="3">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="F124" s="3">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="G124" s="3">
-        <v>782.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B125" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C125" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="E125" s="3">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="F125" s="3">
-        <v>1195.0</v>
+        <v>1195</v>
       </c>
       <c r="G125" s="3">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B126" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C126" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="E126" s="3">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="F126" s="3">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="G126" s="3">
-        <v>701.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B127" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C127" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="E127" s="3">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="F127" s="3">
-        <v>1199.0</v>
+        <v>1199</v>
       </c>
       <c r="G127" s="3">
-        <v>688.0</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B128" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C128" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E128" s="3">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="F128" s="3">
-        <v>739.0</v>
+        <v>739</v>
       </c>
       <c r="G128" s="3">
-        <v>687.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B129" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C129" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E129" s="3">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="F129" s="3">
-        <v>831.0</v>
+        <v>831</v>
       </c>
       <c r="G129" s="3">
-        <v>742.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B130" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C130" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E130" s="3">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="F130" s="3">
-        <v>687.0</v>
+        <v>687</v>
       </c>
       <c r="G130" s="3">
-        <v>688.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B131" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C131" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="E131" s="3">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="F131" s="3">
-        <v>1191.0</v>
+        <v>1191</v>
       </c>
       <c r="G131" s="3">
-        <v>697.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B132" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C132" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="E132" s="3">
-        <v>471.0</v>
+        <v>471</v>
       </c>
       <c r="F132" s="3">
-        <v>1268.0</v>
+        <v>1268</v>
       </c>
       <c r="G132" s="3">
-        <v>628.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B133" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C133" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="E133" s="3">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="F133" s="3">
-        <v>1098.0</v>
+        <v>1098</v>
       </c>
       <c r="G133" s="3">
-        <v>632.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B134" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C134" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E134" s="3">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="F134" s="3">
-        <v>1193.0</v>
+        <v>1193</v>
       </c>
       <c r="G134" s="3">
-        <v>699.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B135" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C135" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E135" s="3">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="F135" s="3">
-        <v>1105.0</v>
+        <v>1105</v>
       </c>
       <c r="G135" s="3">
-        <v>688.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B136" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C136" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E136" s="3">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="F136" s="3">
-        <v>988.0</v>
+        <v>988</v>
       </c>
       <c r="G136" s="3">
-        <v>688.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B137" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C137" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="E137" s="3">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="F137" s="3">
-        <v>1323.0</v>
+        <v>1323</v>
       </c>
       <c r="G137" s="3">
-        <v>701.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B138" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C138" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="E138" s="3">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="F138" s="3">
-        <v>1089.0</v>
+        <v>1089</v>
       </c>
       <c r="G138" s="3">
-        <v>661.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B139" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C139" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="E139" s="3">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="F139" s="3">
-        <v>1054.0</v>
+        <v>1054</v>
       </c>
       <c r="G139" s="3">
-        <v>669.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B140" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C140" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="E140" s="3">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="F140" s="3">
-        <v>638.0</v>
+        <v>638</v>
       </c>
       <c r="G140" s="3">
-        <v>655.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B141" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C141" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="E141" s="3">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="F141" s="3">
-        <v>739.0</v>
+        <v>739</v>
       </c>
       <c r="G141" s="3">
-        <v>671.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B142" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C142" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="E142" s="3">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="F142" s="3">
-        <v>658.0</v>
+        <v>658</v>
       </c>
       <c r="G142" s="3">
-        <v>633.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B143" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C143" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E143" s="3">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="F143" s="3">
-        <v>803.0</v>
+        <v>803</v>
       </c>
       <c r="G143" s="3">
-        <v>681.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B144" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C144" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E144" s="3">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="F144" s="3">
-        <v>821.0</v>
+        <v>821</v>
       </c>
       <c r="G144" s="3">
-        <v>662.0</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B145" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C145" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E145" s="3">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="F145" s="3">
-        <v>773.0</v>
+        <v>773</v>
       </c>
       <c r="G145" s="3">
-        <v>658.0</v>
+        <v>658</v>
       </c>
       <c r="H145" s="4">
-        <v>0.2881944444444444</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>0.28819444444444442</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B146" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C146" s="3">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E146" s="3">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="F146" s="3">
-        <v>1118.0</v>
+        <v>1118</v>
       </c>
       <c r="G146" s="3">
-        <v>665.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B147" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C147" s="3">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E147" s="3">
-        <v>363.0</v>
+        <v>363</v>
       </c>
       <c r="F147" s="3">
-        <v>1106.0</v>
+        <v>1106</v>
       </c>
       <c r="G147" s="3">
-        <v>671.0</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B148" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C148" s="3">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E148" s="3">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="F148" s="3">
-        <v>927.0</v>
+        <v>927</v>
       </c>
       <c r="G148" s="3">
-        <v>676.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B149" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C149" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="E149" s="3">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="F149" s="3">
-        <v>1094.0</v>
+        <v>1094</v>
       </c>
       <c r="G149" s="3">
-        <v>699.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B150" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C150" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="E150" s="3">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="F150" s="3">
-        <v>1043.0</v>
+        <v>1043</v>
       </c>
       <c r="G150" s="3">
-        <v>672.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B151" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C151" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="E151" s="3">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="F151" s="3">
-        <v>1132.0</v>
+        <v>1132</v>
       </c>
       <c r="G151" s="3">
-        <v>674.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B152" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C152" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="E152" s="3">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="F152" s="3">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="G152" s="3">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B153" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C153" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="E153" s="3">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="F153" s="3">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="G153" s="3">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B154" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C154" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="E154" s="3">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="F154" s="3">
-        <v>956.0</v>
+        <v>956</v>
       </c>
       <c r="G154" s="3">
-        <v>670.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B155" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C155" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E155" s="3">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="F155" s="3">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="G155" s="3">
-        <v>650.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B156" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C156" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E156" s="3">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="F156" s="3">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="G156" s="3">
-        <v>708.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B157" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C157" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E157" s="3">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="F157" s="3">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="G157" s="3">
-        <v>681.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B158" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C158" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E158" s="3">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="F158" s="3">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="G158" s="3">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B159" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C159" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E159" s="3">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="F159" s="3">
-        <v>869.0</v>
+        <v>869</v>
       </c>
       <c r="G159" s="3">
-        <v>662.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B160" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C160" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E160" s="3">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="F160" s="3">
-        <v>756.0</v>
+        <v>756</v>
       </c>
       <c r="G160" s="3">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B161" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C161" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E161" s="3">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="F161" s="3">
-        <v>1201.0</v>
+        <v>1201</v>
       </c>
       <c r="G161" s="3">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B162" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C162" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E162" s="3">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="F162" s="3">
-        <v>1102.0</v>
+        <v>1102</v>
       </c>
       <c r="G162" s="3">
-        <v>674.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B163" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C163" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E163" s="3">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="F163" s="3">
-        <v>1067.0</v>
+        <v>1067</v>
       </c>
       <c r="G163" s="3">
-        <v>682.0</v>
+        <v>682</v>
       </c>
       <c r="H163" s="4">
         <v>0.29305555555555557</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B164" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C164" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E164" s="3">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="F164" s="3">
-        <v>839.0</v>
+        <v>839</v>
       </c>
       <c r="G164" s="3">
-        <v>626.0</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B165" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C165" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E165" s="3">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="F165" s="3">
-        <v>715.0</v>
+        <v>715</v>
       </c>
       <c r="G165" s="3">
-        <v>667.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B166" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C166" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E166" s="3">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="F166" s="3">
-        <v>596.0</v>
+        <v>596</v>
       </c>
       <c r="G166" s="3">
-        <v>630.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B167" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C167" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="E167" s="3">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="F167" s="3">
-        <v>1142.0</v>
+        <v>1142</v>
       </c>
       <c r="G167" s="3">
-        <v>689.0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B168" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C168" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="E168" s="3">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="F168" s="3">
-        <v>1169.0</v>
+        <v>1169</v>
       </c>
       <c r="G168" s="3">
-        <v>683.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B169" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C169" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="E169" s="3">
-        <v>363.0</v>
+        <v>363</v>
       </c>
       <c r="F169" s="3">
-        <v>1167.0</v>
+        <v>1167</v>
       </c>
       <c r="G169" s="3">
-        <v>688.0</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B170" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C170" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E170" s="3">
-        <v>396.0</v>
+        <v>396</v>
       </c>
       <c r="F170" s="3">
-        <v>1168.0</v>
+        <v>1168</v>
       </c>
       <c r="G170" s="3">
-        <v>666.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B171" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C171" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E171" s="3">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="F171" s="3">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="G171" s="3">
-        <v>683.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B172" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C172" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E172" s="3">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="F172" s="3">
-        <v>1144.0</v>
+        <v>1144</v>
       </c>
       <c r="G172" s="3">
-        <v>659.0</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B173" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C173" s="3">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="E173" s="3">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="F173" s="3">
-        <v>1304.0</v>
+        <v>1304</v>
       </c>
       <c r="G173" s="3">
-        <v>661.0</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B174" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C174" s="3">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="E174" s="3">
-        <v>427.0</v>
+        <v>427</v>
       </c>
       <c r="F174" s="3">
-        <v>1254.0</v>
+        <v>1254</v>
       </c>
       <c r="G174" s="3">
-        <v>659.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B175" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C175" s="3">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="E175" s="3">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="F175" s="3">
-        <v>1161.0</v>
+        <v>1161</v>
       </c>
       <c r="G175" s="3">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B176" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C176" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E176" s="3">
-        <v>453.0</v>
+        <v>453</v>
       </c>
       <c r="F176" s="3">
-        <v>1370.0</v>
+        <v>1370</v>
       </c>
       <c r="G176" s="3">
-        <v>669.0</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B177" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C177" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E177" s="3">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="F177" s="3">
-        <v>1148.0</v>
+        <v>1148</v>
       </c>
       <c r="G177" s="3">
-        <v>677.0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B178" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C178" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E178" s="3">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="F178" s="3">
-        <v>1119.0</v>
+        <v>1119</v>
       </c>
       <c r="G178" s="3">
-        <v>653.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B179" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C179" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E179" s="3">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="F179" s="3">
-        <v>882.0</v>
+        <v>882</v>
       </c>
       <c r="G179" s="3">
-        <v>709.0</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B180" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C180" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E180" s="3">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="F180" s="3">
-        <v>897.0</v>
+        <v>897</v>
       </c>
       <c r="G180" s="3">
-        <v>629.0</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B181" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C181" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E181" s="3">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="F181" s="3">
-        <v>712.0</v>
+        <v>712</v>
       </c>
       <c r="G181" s="3">
-        <v>658.0</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B182" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C182" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="E182" s="3">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="F182" s="3">
-        <v>1154.0</v>
+        <v>1154</v>
       </c>
       <c r="G182" s="3">
-        <v>683.0</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B183" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C183" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="E183" s="3">
-        <v>431.0</v>
+        <v>431</v>
       </c>
       <c r="F183" s="3">
-        <v>1320.0</v>
+        <v>1320</v>
       </c>
       <c r="G183" s="3">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B184" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C184" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="E184" s="3">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="F184" s="3">
-        <v>1112.0</v>
+        <v>1112</v>
       </c>
       <c r="G184" s="3">
-        <v>666.0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B185" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C185" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="E185" s="3">
-        <v>543.0</v>
+        <v>543</v>
       </c>
       <c r="F185" s="3">
-        <v>1622.0</v>
+        <v>1622</v>
       </c>
       <c r="G185" s="3">
-        <v>665.0</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B186" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C186" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="E186" s="3">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="F186" s="3">
-        <v>1281.0</v>
+        <v>1281</v>
       </c>
       <c r="G186" s="3">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B187" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C187" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="E187" s="3">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="F187" s="3">
-        <v>1285.0</v>
+        <v>1285</v>
       </c>
       <c r="G187" s="3">
-        <v>656.0</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B188" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C188" s="3">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="E188" s="3">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="F188" s="3">
-        <v>1313.0</v>
+        <v>1313</v>
       </c>
       <c r="G188" s="3">
-        <v>661.0</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B189" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C189" s="3">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="E189" s="3">
-        <v>416.0</v>
+        <v>416</v>
       </c>
       <c r="F189" s="3">
-        <v>1294.0</v>
+        <v>1294</v>
       </c>
       <c r="G189" s="3">
-        <v>678.0</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B190" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C190" s="3">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="E190" s="3">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="F190" s="3">
-        <v>1068.0</v>
+        <v>1068</v>
       </c>
       <c r="G190" s="3">
-        <v>650.0</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B191" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C191" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="E191" s="3">
-        <v>406.0</v>
+        <v>406</v>
       </c>
       <c r="F191" s="3">
-        <v>1184.0</v>
+        <v>1184</v>
       </c>
       <c r="G191" s="3">
-        <v>657.0</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B192" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C192" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="E192" s="3">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="F192" s="3">
-        <v>1052.0</v>
+        <v>1052</v>
       </c>
       <c r="G192" s="3">
-        <v>652.0</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B193" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C193" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="E193" s="3">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="F193" s="3">
-        <v>1184.0</v>
+        <v>1184</v>
       </c>
       <c r="G193" s="3">
-        <v>663.0</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B194" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C194" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="E194" s="3">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="F194" s="3">
-        <v>679.0</v>
+        <v>679</v>
       </c>
       <c r="G194" s="3">
-        <v>617.0</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B195" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C195" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="E195" s="3">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="F195" s="3">
-        <v>526.0</v>
+        <v>526</v>
       </c>
       <c r="G195" s="3">
-        <v>657.0</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B196" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C196" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="E196" s="3">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="F196" s="3">
-        <v>755.0</v>
+        <v>755</v>
       </c>
       <c r="G196" s="3">
-        <v>660.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B197" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C197" s="3">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="E197" s="3">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="F197" s="3">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="G197" s="3">
-        <v>688.0</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B198" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C198" s="3">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="E198" s="3">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="F198" s="3">
-        <v>1279.0</v>
+        <v>1279</v>
       </c>
       <c r="G198" s="3">
-        <v>662.0</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B199" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C199" s="3">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="E199" s="3">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="F199" s="3">
-        <v>1099.0</v>
+        <v>1099</v>
       </c>
       <c r="G199" s="3">
-        <v>676.0</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B200" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C200" s="3">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="E200" s="3">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="F200" s="3">
-        <v>1034.0</v>
+        <v>1034</v>
       </c>
       <c r="G200" s="3">
-        <v>647.0</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B201" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C201" s="3">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="E201" s="3">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="F201" s="3">
-        <v>972.0</v>
+        <v>972</v>
       </c>
       <c r="G201" s="3">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B202" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C202" s="3">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="E202" s="3">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="F202" s="3">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="G202" s="3">
-        <v>626.0</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B203" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C203" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E203" s="3">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="F203" s="3">
-        <v>1021.0</v>
+        <v>1021</v>
       </c>
       <c r="G203" s="3">
-        <v>667.0</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B204" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C204" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E204" s="3">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="F204" s="3">
-        <v>1226.0</v>
+        <v>1226</v>
       </c>
       <c r="G204" s="3">
-        <v>663.0</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B205" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C205" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E205" s="3">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="F205" s="3">
-        <v>1217.0</v>
+        <v>1217</v>
       </c>
       <c r="G205" s="3">
-        <v>681.0</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B206" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C206" s="3">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E206" s="3">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="F206" s="3">
-        <v>1121.0</v>
+        <v>1121</v>
       </c>
       <c r="G206" s="3">
-        <v>672.0</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B207" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C207" s="3">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E207" s="3">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="F207" s="3">
-        <v>1098.0</v>
+        <v>1098</v>
       </c>
       <c r="G207" s="3">
-        <v>657.0</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B208" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C208" s="3">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E208" s="3">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="F208" s="3">
-        <v>1201.0</v>
+        <v>1201</v>
       </c>
       <c r="G208" s="3">
-        <v>656.0</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B209" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C209" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E209" s="3">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="F209" s="3">
-        <v>1255.0</v>
+        <v>1255</v>
       </c>
       <c r="G209" s="3">
-        <v>687.0</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B210" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C210" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E210" s="3">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="F210" s="3">
-        <v>1046.0</v>
+        <v>1046</v>
       </c>
       <c r="G210" s="3">
-        <v>662.0</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B211" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C211" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E211" s="3">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="F211" s="3">
-        <v>1228.0</v>
+        <v>1228</v>
       </c>
       <c r="G211" s="3">
-        <v>674.0</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B212" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C212" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E212" s="3">
-        <v>349.0</v>
+        <v>349</v>
       </c>
       <c r="F212" s="3">
-        <v>1073.0</v>
+        <v>1073</v>
       </c>
       <c r="G212" s="3">
-        <v>674.0</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B213" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C213" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E213" s="3">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="F213" s="3">
-        <v>1043.0</v>
+        <v>1043</v>
       </c>
       <c r="G213" s="3">
-        <v>650.0</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
-        <v>2.0230702E7</v>
+        <v>20230702</v>
       </c>
       <c r="B214" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C214" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E214" s="3">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="F214" s="3">
-        <v>1061.0</v>
+        <v>1061</v>
       </c>
       <c r="G214" s="3">
-        <v>654.0</v>
+        <v>654</v>
       </c>
       <c r="H214" s="4">
         <v>0.30833333333333335</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
-        <v>2.0230703E7</v>
+        <v>20230703</v>
       </c>
       <c r="B215" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C215" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E215" s="3">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="F215" s="3">
-        <v>988.0</v>
+        <v>988</v>
       </c>
       <c r="G215" s="3">
-        <v>667.0</v>
+        <v>667</v>
       </c>
       <c r="H215" s="4">
         <v>0.28125</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A216" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B216" s="3">
+        <v>3</v>
+      </c>
       <c r="C216" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E216" s="3">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="F216" s="3">
-        <v>763.0</v>
+        <v>763</v>
       </c>
       <c r="G216" s="3">
-        <v>622.0</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A217" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B217" s="3">
+        <v>3</v>
+      </c>
       <c r="C217" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E217" s="3">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="F217" s="3">
-        <v>789.0</v>
+        <v>789</v>
       </c>
       <c r="G217" s="3">
-        <v>650.0</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A218" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B218" s="3">
+        <v>3</v>
+      </c>
       <c r="C218" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E218" s="3">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="F218" s="3">
-        <v>836.0</v>
+        <v>836</v>
       </c>
       <c r="G218" s="3">
-        <v>674.0</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A219" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B219" s="3">
+        <v>3</v>
+      </c>
       <c r="C219" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E219" s="3">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="F219" s="3">
-        <v>749.0</v>
+        <v>749</v>
       </c>
       <c r="G219" s="3">
-        <v>712.0</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A220" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B220" s="3">
+        <v>3</v>
+      </c>
       <c r="C220" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E220" s="3">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="F220" s="3">
-        <v>803.0</v>
+        <v>803</v>
       </c>
       <c r="G220" s="3">
-        <v>646.0</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A221" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B221" s="3">
+        <v>3</v>
+      </c>
       <c r="C221" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E221" s="3">
-        <v>358.0</v>
+        <v>358</v>
       </c>
       <c r="F221" s="3">
-        <v>1207.0</v>
+        <v>1207</v>
       </c>
       <c r="G221" s="3">
-        <v>703.0</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A222" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B222" s="3">
+        <v>3</v>
+      </c>
       <c r="C222" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E222" s="3">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="F222" s="3">
-        <v>1220.0</v>
+        <v>1220</v>
       </c>
       <c r="G222" s="3">
-        <v>643.0</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A223" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B223" s="3">
+        <v>3</v>
+      </c>
       <c r="C223" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E223" s="3">
-        <v>466.0</v>
+        <v>466</v>
       </c>
       <c r="F223" s="3">
-        <v>1329.0</v>
+        <v>1329</v>
       </c>
       <c r="G223" s="3">
-        <v>649.0</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A224" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B224" s="3">
+        <v>3</v>
+      </c>
       <c r="C224" s="3">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="E224" s="3">
-        <v>451.0</v>
+        <v>451</v>
       </c>
       <c r="F224" s="3">
-        <v>1467.0</v>
+        <v>1467</v>
       </c>
       <c r="G224" s="3">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A225" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B225" s="3">
+        <v>3</v>
+      </c>
+      <c r="C225" s="3">
+        <v>61</v>
+      </c>
       <c r="E225" s="3">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="F225" s="3">
-        <v>1341.0</v>
+        <v>1341</v>
       </c>
       <c r="G225" s="3">
-        <v>671.0</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A226" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B226" s="3">
+        <v>3</v>
+      </c>
+      <c r="C226" s="3">
+        <v>61</v>
+      </c>
       <c r="E226" s="3">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="F226" s="3">
-        <v>1448.0</v>
+        <v>1448</v>
       </c>
       <c r="G226" s="3">
-        <v>675.0</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A227" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B227" s="3">
+        <v>3</v>
+      </c>
       <c r="C227" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E227" s="3">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="F227" s="3">
-        <v>913.0</v>
+        <v>913</v>
       </c>
       <c r="G227" s="3">
-        <v>662.0</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A228" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B228" s="3">
+        <v>3</v>
+      </c>
+      <c r="C228" s="3">
+        <v>36</v>
+      </c>
       <c r="E228" s="3">
-        <v>624.0</v>
+        <v>624</v>
       </c>
       <c r="F228" s="3">
-        <v>884.0</v>
+        <v>884</v>
       </c>
       <c r="G228" s="3">
-        <v>633.0</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A229" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B229" s="3">
+        <v>3</v>
+      </c>
+      <c r="C229" s="3">
+        <v>36</v>
+      </c>
       <c r="E229" s="3">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="F229" s="3">
-        <v>926.0</v>
+        <v>926</v>
       </c>
       <c r="G229" s="3">
-        <v>641.0</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A230" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B230" s="3">
+        <v>3</v>
+      </c>
       <c r="C230" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="E230" s="3">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="F230" s="3">
-        <v>1123.0</v>
+        <v>1123</v>
       </c>
       <c r="G230" s="3">
-        <v>722.0</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A231" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B231" s="3">
+        <v>3</v>
+      </c>
+      <c r="C231" s="3">
+        <v>72</v>
+      </c>
       <c r="E231" s="3">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="F231" s="3">
-        <v>1191.0</v>
+        <v>1191</v>
       </c>
       <c r="G231" s="3">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A232" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B232" s="3">
+        <v>3</v>
+      </c>
+      <c r="C232" s="3">
+        <v>72</v>
+      </c>
       <c r="E232" s="3">
-        <v>358.0</v>
+        <v>358</v>
       </c>
       <c r="F232" s="3">
-        <v>1126.0</v>
+        <v>1126</v>
       </c>
       <c r="G232" s="3">
-        <v>682.0</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A233" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B233" s="3">
+        <v>3</v>
+      </c>
       <c r="C233" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="E233" s="3">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="F233" s="3">
-        <v>1418.0</v>
+        <v>1418</v>
       </c>
       <c r="G233" s="3">
-        <v>716.0</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A234" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B234" s="3">
+        <v>3</v>
+      </c>
+      <c r="C234" s="3">
+        <v>39</v>
+      </c>
       <c r="E234" s="3">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="F234" s="3">
-        <v>1227.0</v>
+        <v>1227</v>
       </c>
       <c r="G234" s="3">
-        <v>680.0</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A235" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B235" s="3">
+        <v>3</v>
+      </c>
+      <c r="C235" s="3">
+        <v>39</v>
+      </c>
       <c r="E235" s="3">
-        <v>454.0</v>
+        <v>454</v>
       </c>
       <c r="F235" s="3">
-        <v>1363.0</v>
+        <v>1363</v>
       </c>
       <c r="G235" s="3">
-        <v>666.0</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A236" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B236" s="3">
+        <v>3</v>
+      </c>
       <c r="C236" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E236" s="3">
-        <v>466.0</v>
+        <v>466</v>
       </c>
       <c r="F236" s="3">
-        <v>1485.0</v>
+        <v>1485</v>
       </c>
       <c r="G236" s="3">
-        <v>686.0</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A237" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B237" s="3">
+        <v>3</v>
+      </c>
+      <c r="C237" s="3">
+        <v>80</v>
+      </c>
       <c r="E237" s="3">
-        <v>459.0</v>
+        <v>459</v>
       </c>
       <c r="F237" s="3">
-        <v>1349.0</v>
+        <v>1349</v>
       </c>
       <c r="G237" s="3">
-        <v>659.0</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A238" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B238" s="3">
+        <v>3</v>
+      </c>
+      <c r="C238" s="3">
+        <v>80</v>
+      </c>
       <c r="E238" s="3">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="F238" s="3">
-        <v>1229.0</v>
+        <v>1229</v>
       </c>
       <c r="G238" s="3">
-        <v>662.0</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A239" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B239" s="3">
+        <v>3</v>
+      </c>
       <c r="C239" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E239" s="3">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="F239" s="3">
-        <v>1239.0</v>
+        <v>1239</v>
       </c>
       <c r="G239" s="3">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A240" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B240" s="3">
+        <v>3</v>
+      </c>
+      <c r="C240" s="3">
+        <v>13</v>
+      </c>
       <c r="E240" s="3">
-        <v>481.0</v>
+        <v>481</v>
       </c>
       <c r="F240" s="3">
-        <v>1248.0</v>
+        <v>1248</v>
       </c>
       <c r="G240" s="3">
-        <v>665.0</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A241" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B241" s="3">
+        <v>3</v>
+      </c>
+      <c r="C241" s="3">
+        <v>13</v>
+      </c>
       <c r="E241" s="3">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="F241" s="3">
-        <v>1217.0</v>
+        <v>1217</v>
       </c>
       <c r="G241" s="3">
-        <v>669.0</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A242" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B242" s="3">
+        <v>3</v>
+      </c>
       <c r="C242" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E242" s="3">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="F242" s="3">
-        <v>1345.0</v>
+        <v>1345</v>
       </c>
       <c r="G242" s="3">
-        <v>704.0</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A243" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B243" s="3">
+        <v>3</v>
+      </c>
+      <c r="C243" s="3">
+        <v>40</v>
+      </c>
       <c r="E243" s="3">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="F243" s="3">
-        <v>1288.0</v>
+        <v>1288</v>
       </c>
       <c r="G243" s="3">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A244" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B244" s="3">
+        <v>3</v>
+      </c>
+      <c r="C244" s="3">
+        <v>40</v>
+      </c>
       <c r="E244" s="3">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="F244" s="3">
-        <v>1216.0</v>
+        <v>1216</v>
       </c>
       <c r="G244" s="3">
-        <v>693.0</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A245" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B245" s="3">
+        <v>3</v>
+      </c>
       <c r="C245" s="3">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="E245" s="3">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="F245" s="3">
-        <v>1330.0</v>
+        <v>1330</v>
       </c>
       <c r="G245" s="3">
-        <v>675.0</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A246" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B246" s="3">
+        <v>3</v>
+      </c>
+      <c r="C246" s="3">
+        <v>86</v>
+      </c>
       <c r="E246" s="3">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="F246" s="3">
-        <v>1044.0</v>
+        <v>1044</v>
       </c>
       <c r="G246" s="3">
-        <v>659.0</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A247" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B247" s="3">
+        <v>3</v>
+      </c>
+      <c r="C247" s="3">
+        <v>86</v>
+      </c>
       <c r="E247" s="3">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="F247" s="3">
-        <v>986.0</v>
+        <v>986</v>
       </c>
       <c r="G247" s="3">
-        <v>674.0</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A248" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B248" s="3">
+        <v>3</v>
+      </c>
       <c r="C248" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="E248" s="3">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="F248" s="3">
-        <v>1226.0</v>
+        <v>1226</v>
       </c>
       <c r="G248" s="3">
-        <v>662.0</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A249" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B249" s="3">
+        <v>3</v>
+      </c>
+      <c r="C249" s="3">
+        <v>48</v>
+      </c>
       <c r="E249" s="3">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="F249" s="3">
-        <v>1164.0</v>
+        <v>1164</v>
       </c>
       <c r="G249" s="3">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A250" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B250" s="3">
+        <v>3</v>
+      </c>
+      <c r="C250" s="3">
+        <v>48</v>
+      </c>
       <c r="E250" s="3">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="F250" s="3">
-        <v>978.0</v>
+        <v>978</v>
       </c>
       <c r="G250" s="3">
-        <v>657.0</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A251" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B251" s="3">
+        <v>3</v>
+      </c>
       <c r="C251" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E251" s="3">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="F251" s="3">
-        <v>1225.0</v>
+        <v>1225</v>
       </c>
       <c r="G251" s="3">
-        <v>717.0</v>
-      </c>
-    </row>
-    <row r="252">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A252" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B252" s="3">
+        <v>3</v>
+      </c>
+      <c r="C252" s="3">
+        <v>10</v>
+      </c>
       <c r="E252" s="3">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="F252" s="3">
-        <v>891.0</v>
+        <v>891</v>
       </c>
       <c r="G252" s="3">
-        <v>652.0</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A253" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B253" s="3">
+        <v>3</v>
+      </c>
+      <c r="C253" s="3">
+        <v>10</v>
+      </c>
       <c r="E253" s="3">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="F253" s="3">
-        <v>1013.0</v>
+        <v>1013</v>
       </c>
       <c r="G253" s="3">
-        <v>713.0</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A254" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B254" s="3">
+        <v>3</v>
+      </c>
       <c r="C254" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="E254" s="3">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="F254" s="3">
-        <v>1263.0</v>
+        <v>1263</v>
       </c>
       <c r="G254" s="3">
-        <v>720.0</v>
-      </c>
-    </row>
-    <row r="255">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A255" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B255" s="3">
+        <v>3</v>
+      </c>
+      <c r="C255" s="3">
+        <v>66</v>
+      </c>
       <c r="E255" s="3">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="F255" s="3">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="G255" s="3">
-        <v>750.0</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A256" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B256" s="3">
+        <v>3</v>
+      </c>
+      <c r="C256" s="3">
+        <v>66</v>
+      </c>
       <c r="E256" s="3">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="F256" s="3">
-        <v>1203.0</v>
+        <v>1203</v>
       </c>
       <c r="G256" s="3">
-        <v>688.0</v>
-      </c>
-    </row>
-    <row r="257">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A257" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B257" s="3">
+        <v>3</v>
+      </c>
       <c r="C257" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E257" s="3">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="F257" s="3">
-        <v>1052.0</v>
+        <v>1052</v>
       </c>
       <c r="G257" s="3">
-        <v>699.0</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A258" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B258" s="3">
+        <v>3</v>
+      </c>
+      <c r="C258" s="3">
+        <v>100</v>
+      </c>
       <c r="E258" s="3">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="F258" s="3">
-        <v>1160.0</v>
+        <v>1160</v>
       </c>
       <c r="G258" s="3">
-        <v>690.0</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A259" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B259" s="3">
+        <v>3</v>
+      </c>
+      <c r="C259" s="3">
+        <v>100</v>
+      </c>
       <c r="E259" s="3">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="F259" s="3">
-        <v>1031.0</v>
+        <v>1031</v>
       </c>
       <c r="G259" s="3">
-        <v>649.0</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A260" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B260" s="3">
+        <v>3</v>
+      </c>
       <c r="C260" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="E260" s="3">
-        <v>451.0</v>
+        <v>451</v>
       </c>
       <c r="F260" s="3">
-        <v>1401.0</v>
+        <v>1401</v>
       </c>
       <c r="G260" s="3">
-        <v>678.0</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A261" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B261" s="3">
+        <v>3</v>
+      </c>
+      <c r="C261" s="3">
+        <v>79</v>
+      </c>
       <c r="E261" s="3">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="F261" s="3">
-        <v>1369.0</v>
+        <v>1369</v>
       </c>
       <c r="G261" s="3">
-        <v>677.0</v>
-      </c>
-    </row>
-    <row r="262">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A262" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B262" s="3">
+        <v>3</v>
+      </c>
+      <c r="C262" s="3">
+        <v>79</v>
+      </c>
       <c r="E262" s="3">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="F262" s="3">
-        <v>1066.0</v>
+        <v>1066</v>
       </c>
       <c r="G262" s="3">
-        <v>730.0</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A263" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B263" s="3">
+        <v>3</v>
+      </c>
       <c r="C263" s="3">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E263" s="3">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="F263" s="3">
-        <v>1184.0</v>
+        <v>1184</v>
       </c>
       <c r="G263" s="3">
-        <v>689.0</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A264" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B264" s="3">
+        <v>3</v>
+      </c>
+      <c r="C264" s="3">
+        <v>93</v>
+      </c>
       <c r="E264" s="3">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="F264" s="3">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="G264" s="3">
-        <v>701.0</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A265" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B265" s="3">
+        <v>3</v>
+      </c>
+      <c r="C265" s="3">
+        <v>93</v>
+      </c>
       <c r="E265" s="3">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="F265" s="3">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="G265" s="3">
-        <v>655.0</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A266" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B266" s="3">
+        <v>3</v>
+      </c>
       <c r="C266" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E266" s="3">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="F266" s="3">
-        <v>1132.0</v>
+        <v>1132</v>
       </c>
       <c r="G266" s="3">
-        <v>676.0</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A267" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B267" s="3">
+        <v>3</v>
+      </c>
+      <c r="C267" s="3">
+        <v>8</v>
+      </c>
       <c r="E267" s="3">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="F267" s="3">
-        <v>994.0</v>
+        <v>994</v>
       </c>
       <c r="G267" s="3">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="268">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A268" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B268" s="3">
+        <v>3</v>
+      </c>
+      <c r="C268" s="3">
+        <v>8</v>
+      </c>
       <c r="E268" s="3">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="F268" s="3">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="G268" s="3">
-        <v>660.0</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A269" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B269" s="3">
+        <v>3</v>
+      </c>
       <c r="C269" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E269" s="3">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="F269" s="3">
-        <v>1256.0</v>
+        <v>1256</v>
       </c>
       <c r="G269" s="3">
-        <v>733.0</v>
-      </c>
-    </row>
-    <row r="270">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A270" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B270" s="3">
+        <v>3</v>
+      </c>
+      <c r="C270" s="3">
+        <v>4</v>
+      </c>
       <c r="E270" s="3">
-        <v>349.0</v>
+        <v>349</v>
       </c>
       <c r="F270" s="3">
-        <v>1153.0</v>
+        <v>1153</v>
       </c>
       <c r="G270" s="3">
-        <v>697.0</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A271" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B271" s="3">
+        <v>3</v>
+      </c>
+      <c r="C271" s="3">
+        <v>4</v>
+      </c>
       <c r="E271" s="3">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="F271" s="3">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="G271" s="3">
-        <v>675.0</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A272" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B272" s="3">
+        <v>3</v>
+      </c>
       <c r="C272" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E272" s="3">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="F272" s="3">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="G272" s="3">
-        <v>665.0</v>
-      </c>
-    </row>
-    <row r="273">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A273" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B273" s="3">
+        <v>3</v>
+      </c>
+      <c r="C273" s="3">
+        <v>64</v>
+      </c>
       <c r="E273" s="3">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="F273" s="3">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="G273" s="3">
-        <v>751.0</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A274" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B274" s="3">
+        <v>3</v>
+      </c>
+      <c r="C274" s="3">
+        <v>64</v>
+      </c>
       <c r="E274" s="3">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="F274" s="3">
-        <v>1284.0</v>
+        <v>1284</v>
       </c>
       <c r="G274" s="3">
-        <v>739.0</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A275" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B275" s="3">
+        <v>3</v>
+      </c>
       <c r="C275" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="E275" s="3">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="F275" s="3">
-        <v>1189.0</v>
+        <v>1189</v>
       </c>
       <c r="G275" s="3">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A276" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B276" s="3">
+        <v>3</v>
+      </c>
+      <c r="C276" s="3">
+        <v>65</v>
+      </c>
       <c r="E276" s="3">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="F276" s="3">
-        <v>1054.0</v>
+        <v>1054</v>
       </c>
       <c r="G276" s="3">
-        <v>675.0</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A277" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B277" s="3">
+        <v>3</v>
+      </c>
+      <c r="C277" s="3">
+        <v>65</v>
+      </c>
       <c r="E277" s="3">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="F277" s="3">
-        <v>1116.0</v>
+        <v>1116</v>
       </c>
       <c r="G277" s="3">
-        <v>671.0</v>
-      </c>
-    </row>
-    <row r="278">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A278" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B278" s="3">
+        <v>3</v>
+      </c>
       <c r="C278" s="3">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="E278" s="3">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="F278" s="3">
-        <v>1275.0</v>
+        <v>1275</v>
       </c>
       <c r="G278" s="3">
-        <v>730.0</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A279" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B279" s="3">
+        <v>3</v>
+      </c>
+      <c r="C279" s="3">
+        <v>83</v>
+      </c>
       <c r="E279" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="F279" s="3">
-        <v>1160.0</v>
+        <v>1160</v>
       </c>
       <c r="G279" s="3">
-        <v>708.0</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A280" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B280" s="3">
+        <v>3</v>
+      </c>
+      <c r="C280" s="3">
+        <v>83</v>
+      </c>
       <c r="E280" s="3">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="F280" s="3">
-        <v>1210.0</v>
+        <v>1210</v>
       </c>
       <c r="G280" s="3">
-        <v>684.0</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A281" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B281" s="3">
+        <v>3</v>
+      </c>
       <c r="C281" s="3">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="E281" s="3">
-        <v>386.0</v>
+        <v>386</v>
       </c>
       <c r="F281" s="3">
-        <v>1157.0</v>
+        <v>1157</v>
       </c>
       <c r="G281" s="3">
-        <v>666.0</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A282" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B282" s="3">
+        <v>3</v>
+      </c>
+      <c r="C282" s="3">
+        <v>88</v>
+      </c>
       <c r="E282" s="3">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="F282" s="3">
-        <v>1354.0</v>
+        <v>1354</v>
       </c>
       <c r="G282" s="3">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="283">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A283" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B283" s="3">
+        <v>3</v>
+      </c>
+      <c r="C283" s="3">
+        <v>88</v>
+      </c>
       <c r="E283" s="3">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="F283" s="3">
-        <v>1239.0</v>
+        <v>1239</v>
       </c>
       <c r="G283" s="3">
-        <v>653.0</v>
-      </c>
-    </row>
-    <row r="284">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A284" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B284" s="3">
+        <v>3</v>
+      </c>
       <c r="C284" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="E284" s="3">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="F284" s="3">
-        <v>1234.0</v>
+        <v>1234</v>
       </c>
       <c r="G284" s="3">
-        <v>703.0</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A285" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B285" s="3">
+        <v>3</v>
+      </c>
+      <c r="C285" s="3">
+        <v>71</v>
+      </c>
       <c r="E285" s="3">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="F285" s="3">
-        <v>1291.0</v>
+        <v>1291</v>
       </c>
       <c r="G285" s="3">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A286" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B286" s="3">
+        <v>3</v>
+      </c>
+      <c r="C286" s="3">
+        <v>71</v>
+      </c>
       <c r="E286" s="3">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="F286" s="3">
-        <v>1095.0</v>
+        <v>1095</v>
       </c>
       <c r="G286" s="3">
-        <v>686.0</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A287" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B287" s="3">
+        <v>3</v>
+      </c>
       <c r="C287" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="E287" s="3">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="F287" s="3">
-        <v>1113.0</v>
+        <v>1113</v>
       </c>
       <c r="G287" s="3">
-        <v>681.0</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A288" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B288" s="3">
+        <v>3</v>
+      </c>
+      <c r="C288" s="3">
+        <v>53</v>
+      </c>
       <c r="E288" s="3">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="F288" s="3">
-        <v>1084.0</v>
+        <v>1084</v>
       </c>
       <c r="G288" s="3">
-        <v>683.0</v>
-      </c>
-    </row>
-    <row r="289">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A289" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B289" s="3">
+        <v>3</v>
+      </c>
+      <c r="C289" s="3">
+        <v>53</v>
+      </c>
       <c r="E289" s="3">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="F289" s="3">
-        <v>1168.0</v>
+        <v>1168</v>
       </c>
       <c r="G289" s="3">
-        <v>679.0</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A290" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B290" s="3">
+        <v>3</v>
+      </c>
       <c r="C290" s="3">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="E290" s="3">
-        <v>363.0</v>
+        <v>363</v>
       </c>
       <c r="F290" s="3">
-        <v>1147.0</v>
+        <v>1147</v>
       </c>
       <c r="G290" s="3">
-        <v>683.0</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A291" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B291" s="3">
+        <v>3</v>
+      </c>
+      <c r="C291" s="3">
+        <v>102</v>
+      </c>
       <c r="E291" s="3">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="F291" s="3">
-        <v>1136.0</v>
+        <v>1136</v>
       </c>
       <c r="G291" s="3">
-        <v>675.0</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A292" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B292" s="3">
+        <v>3</v>
+      </c>
+      <c r="C292" s="3">
+        <v>102</v>
+      </c>
       <c r="E292" s="3">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="F292" s="3">
-        <v>1088.0</v>
+        <v>1088</v>
       </c>
       <c r="G292" s="3">
-        <v>667.0</v>
-      </c>
-    </row>
-    <row r="293">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A293" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B293" s="3">
+        <v>3</v>
+      </c>
       <c r="C293" s="3">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="E293" s="3">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="F293" s="3">
-        <v>1071.0</v>
+        <v>1071</v>
       </c>
       <c r="G293" s="3">
-        <v>683.0</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A294" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B294" s="3">
+        <v>3</v>
+      </c>
+      <c r="C294" s="3">
+        <v>105</v>
+      </c>
       <c r="E294" s="3">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="F294" s="3">
-        <v>987.0</v>
+        <v>987</v>
       </c>
       <c r="G294" s="3">
-        <v>676.0</v>
-      </c>
-    </row>
-    <row r="295">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A295" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B295" s="3">
+        <v>3</v>
+      </c>
+      <c r="C295" s="3">
+        <v>105</v>
+      </c>
       <c r="E295" s="3">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="F295" s="3">
-        <v>1053.0</v>
+        <v>1053</v>
       </c>
       <c r="G295" s="3">
-        <v>644.0</v>
-      </c>
-    </row>
-    <row r="296">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A296" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B296" s="3">
+        <v>3</v>
+      </c>
       <c r="C296" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E296" s="3">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="F296" s="3">
-        <v>1150.0</v>
+        <v>1150</v>
       </c>
       <c r="G296" s="3">
-        <v>699.0</v>
-      </c>
-    </row>
-    <row r="297">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A297" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B297" s="3">
+        <v>3</v>
+      </c>
+      <c r="C297" s="3">
+        <v>38</v>
+      </c>
       <c r="E297" s="3">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="F297" s="3">
-        <v>1106.0</v>
+        <v>1106</v>
       </c>
       <c r="G297" s="3">
-        <v>652.0</v>
-      </c>
-    </row>
-    <row r="298">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A298" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B298" s="3">
+        <v>3</v>
+      </c>
+      <c r="C298" s="3">
+        <v>38</v>
+      </c>
       <c r="E298" s="3">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="F298" s="3">
-        <v>1281.0</v>
+        <v>1281</v>
       </c>
       <c r="G298" s="3">
-        <v>684.0</v>
-      </c>
-    </row>
-    <row r="299">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A299" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B299" s="3">
+        <v>3</v>
+      </c>
       <c r="C299" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E299" s="3">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="F299" s="3">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="G299" s="3">
-        <v>690.0</v>
-      </c>
-    </row>
-    <row r="300">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A300" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B300" s="3">
+        <v>3</v>
+      </c>
+      <c r="C300" s="3">
+        <v>1</v>
+      </c>
       <c r="E300" s="3">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="F300" s="3">
-        <v>922.0</v>
+        <v>922</v>
       </c>
       <c r="G300" s="3">
-        <v>714.0</v>
-      </c>
-    </row>
-    <row r="301">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A301" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B301" s="3">
+        <v>3</v>
+      </c>
+      <c r="C301" s="3">
+        <v>1</v>
+      </c>
       <c r="E301" s="3">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="F301" s="3">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="G301" s="3">
-        <v>690.0</v>
-      </c>
-    </row>
-    <row r="302">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A302" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B302" s="3">
+        <v>3</v>
+      </c>
       <c r="C302" s="3">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="E302" s="3">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="F302" s="3">
-        <v>1063.0</v>
+        <v>1063</v>
       </c>
       <c r="G302" s="3">
-        <v>714.0</v>
-      </c>
-    </row>
-    <row r="303">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A303" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B303" s="3">
+        <v>3</v>
+      </c>
+      <c r="C303" s="3">
+        <v>107</v>
+      </c>
       <c r="E303" s="3">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="F303" s="3">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="G303" s="3">
-        <v>657.0</v>
-      </c>
-    </row>
-    <row r="304">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A304" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B304" s="3">
+        <v>3</v>
+      </c>
+      <c r="C304" s="3">
+        <v>107</v>
+      </c>
       <c r="E304" s="3">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="F304" s="3">
-        <v>1076.0</v>
+        <v>1076</v>
       </c>
       <c r="G304" s="3">
-        <v>677.0</v>
-      </c>
-    </row>
-    <row r="305">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A305" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B305" s="3">
+        <v>3</v>
+      </c>
       <c r="C305" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E305" s="3">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="F305" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="G305" s="3">
-        <v>676.0</v>
-      </c>
-    </row>
-    <row r="306">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A306" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B306" s="3">
+        <v>3</v>
+      </c>
+      <c r="C306" s="3">
+        <v>21</v>
+      </c>
       <c r="E306" s="3">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="F306" s="3">
-        <v>736.0</v>
+        <v>736</v>
       </c>
       <c r="G306" s="3">
-        <v>644.0</v>
-      </c>
-    </row>
-    <row r="307">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A307" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B307" s="3">
+        <v>3</v>
+      </c>
+      <c r="C307" s="3">
+        <v>21</v>
+      </c>
       <c r="E307" s="3">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="F307" s="3">
-        <v>672.0</v>
+        <v>672</v>
       </c>
       <c r="G307" s="3">
-        <v>711.0</v>
-      </c>
-    </row>
-    <row r="308">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A308" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B308" s="3">
+        <v>3</v>
+      </c>
       <c r="C308" s="3">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="E308" s="3">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="F308" s="3">
-        <v>1418.0</v>
+        <v>1418</v>
       </c>
       <c r="G308" s="3">
-        <v>686.0</v>
-      </c>
-    </row>
-    <row r="309">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A309" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B309" s="3">
+        <v>3</v>
+      </c>
+      <c r="C309" s="3">
+        <v>82</v>
+      </c>
       <c r="E309" s="3">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="F309" s="3">
-        <v>1221.0</v>
+        <v>1221</v>
       </c>
       <c r="G309" s="3">
-        <v>680.0</v>
-      </c>
-    </row>
-    <row r="310">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A310" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B310" s="3">
+        <v>3</v>
+      </c>
+      <c r="C310" s="3">
+        <v>82</v>
+      </c>
       <c r="E310" s="3">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="F310" s="3">
-        <v>1358.0</v>
+        <v>1358</v>
       </c>
       <c r="G310" s="3">
-        <v>698.0</v>
-      </c>
-    </row>
-    <row r="311">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A311" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B311" s="3">
+        <v>3</v>
+      </c>
       <c r="C311" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E311" s="3">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="F311" s="3">
-        <v>783.0</v>
+        <v>783</v>
       </c>
       <c r="G311" s="3">
-        <v>681.0</v>
-      </c>
-    </row>
-    <row r="312">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A312" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B312" s="3">
+        <v>3</v>
+      </c>
+      <c r="C312" s="3">
+        <v>27</v>
+      </c>
       <c r="E312" s="3">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="F312" s="3">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="G312" s="3">
-        <v>819.0</v>
-      </c>
-    </row>
-    <row r="313">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A313" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B313" s="3">
+        <v>3</v>
+      </c>
+      <c r="C313" s="3">
+        <v>27</v>
+      </c>
       <c r="E313" s="3">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="F313" s="3">
-        <v>807.0</v>
+        <v>807</v>
       </c>
       <c r="G313" s="3">
-        <v>681.0</v>
-      </c>
-    </row>
-    <row r="314">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A314" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B314" s="3">
+        <v>3</v>
+      </c>
       <c r="C314" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E314" s="3">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="F314" s="3">
-        <v>892.0</v>
+        <v>892</v>
       </c>
       <c r="G314" s="3">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="315">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A315" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B315" s="3">
+        <v>3</v>
+      </c>
+      <c r="C315" s="3">
+        <v>22</v>
+      </c>
       <c r="E315" s="3">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="F315" s="3">
-        <v>820.0</v>
+        <v>820</v>
       </c>
       <c r="G315" s="3">
-        <v>676.0</v>
-      </c>
-    </row>
-    <row r="316">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A316" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B316" s="3">
+        <v>3</v>
+      </c>
+      <c r="C316" s="3">
+        <v>22</v>
+      </c>
       <c r="E316" s="3">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="F316" s="3">
-        <v>814.0</v>
+        <v>814</v>
       </c>
       <c r="G316" s="3">
-        <v>674.0</v>
-      </c>
-    </row>
-    <row r="317">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A317" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B317" s="3">
+        <v>3</v>
+      </c>
       <c r="C317" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E317" s="3">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="F317" s="3">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="G317" s="3">
-        <v>713.0</v>
-      </c>
-    </row>
-    <row r="318">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A318" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B318" s="3">
+        <v>3</v>
+      </c>
+      <c r="C318" s="3">
+        <v>6</v>
+      </c>
       <c r="E318" s="3">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="F318" s="3">
-        <v>981.0</v>
+        <v>981</v>
       </c>
       <c r="G318" s="3">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="319">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A319" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B319" s="3">
+        <v>3</v>
+      </c>
+      <c r="C319" s="3">
+        <v>6</v>
+      </c>
       <c r="E319" s="3">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="F319" s="3">
-        <v>827.0</v>
+        <v>827</v>
       </c>
       <c r="G319" s="3">
-        <v>725.0</v>
-      </c>
-    </row>
-    <row r="320">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A320" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B320" s="3">
+        <v>3</v>
+      </c>
       <c r="C320" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E320" s="3">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="F320" s="3">
-        <v>1062.0</v>
+        <v>1062</v>
       </c>
       <c r="G320" s="3">
-        <v>687.0</v>
-      </c>
-    </row>
-    <row r="321">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A321" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B321" s="3">
+        <v>3</v>
+      </c>
+      <c r="C321" s="3">
+        <v>44</v>
+      </c>
       <c r="E321" s="3">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="F321" s="3">
-        <v>1118.0</v>
+        <v>1118</v>
       </c>
       <c r="G321" s="3">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="322">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A322" s="3">
+        <v>20230703</v>
+      </c>
+      <c r="B322" s="3">
+        <v>3</v>
+      </c>
+      <c r="C322" s="3">
+        <v>44</v>
+      </c>
       <c r="E322" s="3">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="F322" s="3">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="G322" s="3">
-        <v>674.0</v>
+        <v>674</v>
       </c>
       <c r="H322" s="4">
-        <v>0.30625</v>
+        <v>0.30625000000000002</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>